--- a/meta_stra_framwork/result/split/all_result.xlsx
+++ b/meta_stra_framwork/result/split/all_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>long</t>
   </si>
@@ -23,6 +23,108 @@
   </si>
   <si>
     <t>mother</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['D_shift_1#10#0&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['D_shift_1#10#0&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff]</t>
   </si>
 </sst>
 </file>
@@ -380,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,6 +497,272 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
